--- a/Individual/cg.xlsx
+++ b/Individual/cg.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,16 +441,16 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>22.36</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>0.1595001220703125</v>
+        <v>0.0572890043258667</v>
       </c>
       <c r="G2">
-        <v>-9.800000000000001</v>
+        <v>-12.36</v>
       </c>
       <c r="H2">
-        <v>22.36000000000605</v>
+        <v>23.00000000012142</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,16 +467,16 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>16.15</v>
+        <v>18.13</v>
       </c>
       <c r="F3">
-        <v>0.1849159002304077</v>
+        <v>0.0839916467666626</v>
       </c>
       <c r="G3">
-        <v>2.476</v>
+        <v>3.755</v>
       </c>
       <c r="H3">
-        <v>16.14855072467016</v>
+        <v>18.12500000000786</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,16 +493,16 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>14.94</v>
+        <v>14.16</v>
       </c>
       <c r="F4">
-        <v>0.0747649073600769</v>
+        <v>0.1219911575317383</v>
       </c>
       <c r="G4">
-        <v>3.417</v>
+        <v>4.849</v>
       </c>
       <c r="H4">
-        <v>14.93666666666841</v>
+        <v>14.16000000003253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,16 +519,16 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>12.63</v>
+        <v>14.12</v>
       </c>
       <c r="F5">
-        <v>0.0902513861656189</v>
+        <v>0.07349675893783569</v>
       </c>
       <c r="G5">
-        <v>4.164</v>
+        <v>4.86</v>
       </c>
       <c r="H5">
-        <v>12.62768506770935</v>
+        <v>14.12000000003511</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,16 +545,16 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>12.53</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>0.06689608097076416</v>
+        <v>0.1019855141639709</v>
       </c>
       <c r="G6">
-        <v>5.182</v>
+        <v>4.988</v>
       </c>
       <c r="H6">
-        <v>12.52640000000001</v>
+        <v>14.0000000000011</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -571,16 +571,16 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>12.24</v>
+        <v>13.21</v>
       </c>
       <c r="F7">
-        <v>0.3263403177261353</v>
+        <v>0.1084505319595337</v>
       </c>
       <c r="G7">
-        <v>7.424</v>
+        <v>3.958</v>
       </c>
       <c r="H7">
-        <v>12.24375903616202</v>
+        <v>13.20765957446821</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -597,16 +597,16 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>12.2</v>
+        <v>12.26</v>
       </c>
       <c r="F8">
-        <v>0.1210278272628784</v>
+        <v>0.1489619612693787</v>
       </c>
       <c r="G8">
-        <v>6.547</v>
+        <v>4.986</v>
       </c>
       <c r="H8">
-        <v>12.19979788793242</v>
+        <v>12.25792000001402</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -623,16 +623,16 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>11.51</v>
+        <v>11.98</v>
       </c>
       <c r="F9">
-        <v>0.1996681094169617</v>
+        <v>0.1289703845977783</v>
       </c>
       <c r="G9">
-        <v>7.576</v>
+        <v>4.509</v>
       </c>
       <c r="H9">
-        <v>11.51145891106234</v>
+        <v>11.98295350025838</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -649,16 +649,16 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>11.32</v>
+        <v>11.5</v>
       </c>
       <c r="F10">
-        <v>0.06276589632034302</v>
+        <v>0.09399062395095825</v>
       </c>
       <c r="G10">
-        <v>6.075</v>
+        <v>6.702</v>
       </c>
       <c r="H10">
-        <v>11.32076244777463</v>
+        <v>11.50096554077782</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -675,16 +675,16 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>11.19</v>
+        <v>11.05</v>
       </c>
       <c r="F11">
-        <v>0.1424252986907959</v>
+        <v>0.1901807188987732</v>
       </c>
       <c r="G11">
-        <v>8.706</v>
+        <v>7.223</v>
       </c>
       <c r="H11">
-        <v>11.19068377339181</v>
+        <v>11.04672594987945</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -701,16 +701,16 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>11.16</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>0.1798422336578369</v>
+        <v>0.1827530264854431</v>
       </c>
       <c r="G12">
-        <v>7.441</v>
+        <v>8.403</v>
       </c>
       <c r="H12">
-        <v>11.16443033549969</v>
+        <v>10.99672586289548</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -727,16 +727,16 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>22.36</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>0.1355957388877869</v>
+        <v>0.05924528837203979</v>
       </c>
       <c r="G13">
-        <v>-9.800000000000001</v>
+        <v>-12.36</v>
       </c>
       <c r="H13">
-        <v>22.36000000000605</v>
+        <v>23.00000000012142</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -753,16 +753,16 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>16.15</v>
+        <v>18.13</v>
       </c>
       <c r="F14">
-        <v>0.1453816294670105</v>
+        <v>0.08109265565872192</v>
       </c>
       <c r="G14">
-        <v>2.476</v>
+        <v>3.755</v>
       </c>
       <c r="H14">
-        <v>16.14855072467016</v>
+        <v>18.12500000000786</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -779,16 +779,16 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>14.94</v>
+        <v>14.16</v>
       </c>
       <c r="F15">
-        <v>0.05751538276672363</v>
+        <v>0.1092076897621155</v>
       </c>
       <c r="G15">
-        <v>3.417</v>
+        <v>4.849</v>
       </c>
       <c r="H15">
-        <v>14.93666666666841</v>
+        <v>14.16000000003253</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -805,16 +805,16 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>12.63</v>
+        <v>14.12</v>
       </c>
       <c r="F16">
-        <v>0.08749908208847046</v>
+        <v>0.06924813985824585</v>
       </c>
       <c r="G16">
-        <v>4.164</v>
+        <v>4.86</v>
       </c>
       <c r="H16">
-        <v>12.62768506770935</v>
+        <v>14.12000000003511</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -831,16 +831,16 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>12.53</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>0.05625736713409424</v>
+        <v>0.1007429361343384</v>
       </c>
       <c r="G17">
-        <v>5.182</v>
+        <v>4.988</v>
       </c>
       <c r="H17">
-        <v>12.52640000000001</v>
+        <v>14.0000000000011</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -857,16 +857,16 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>12.24</v>
+        <v>13.21</v>
       </c>
       <c r="F18">
-        <v>0.1464727520942688</v>
+        <v>0.1352294087409973</v>
       </c>
       <c r="G18">
-        <v>7.424</v>
+        <v>3.958</v>
       </c>
       <c r="H18">
-        <v>12.24375903616202</v>
+        <v>13.20765957446821</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -883,16 +883,16 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>12.2</v>
+        <v>12.26</v>
       </c>
       <c r="F19">
-        <v>0.06623917818069458</v>
+        <v>0.1507265567779541</v>
       </c>
       <c r="G19">
-        <v>6.547</v>
+        <v>4.986</v>
       </c>
       <c r="H19">
-        <v>12.19979788793242</v>
+        <v>12.25792000001402</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -909,16 +909,16 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>11.51</v>
+        <v>11.98</v>
       </c>
       <c r="F20">
-        <v>0.1324483156204224</v>
+        <v>0.1234402656555176</v>
       </c>
       <c r="G20">
-        <v>7.576</v>
+        <v>4.509</v>
       </c>
       <c r="H20">
-        <v>11.51145891106234</v>
+        <v>11.98295350025838</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -935,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>11.32</v>
+        <v>11.5</v>
       </c>
       <c r="F21">
-        <v>0.05500710010528564</v>
+        <v>0.08825570344924927</v>
       </c>
       <c r="G21">
-        <v>6.075</v>
+        <v>6.702</v>
       </c>
       <c r="H21">
-        <v>11.32076244777463</v>
+        <v>11.50096554077782</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -961,16 +961,16 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>11.19</v>
+        <v>11.05</v>
       </c>
       <c r="F22">
-        <v>0.1159868240356445</v>
+        <v>0.1829701662063599</v>
       </c>
       <c r="G22">
-        <v>8.706</v>
+        <v>7.223</v>
       </c>
       <c r="H22">
-        <v>11.19068377339181</v>
+        <v>11.04672594987945</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -987,16 +987,16 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>11.16</v>
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>0.1297004222869873</v>
+        <v>0.136719822883606</v>
       </c>
       <c r="G23">
-        <v>7.441</v>
+        <v>8.403</v>
       </c>
       <c r="H23">
-        <v>11.16443033549969</v>
+        <v>10.99672586289548</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1013,16 +1013,16 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="F24">
-        <v>0.07774621248245239</v>
+        <v>0.1459450721740723</v>
       </c>
       <c r="G24">
-        <v>7.2</v>
+        <v>7.428</v>
       </c>
       <c r="H24">
-        <v>11.00138070604037</v>
+        <v>10.98815480979022</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1039,16 +1039,16 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>10.95</v>
+        <v>10.96</v>
       </c>
       <c r="F25">
-        <v>0.1252164244651794</v>
+        <v>0.1292365193367004</v>
       </c>
       <c r="G25">
-        <v>9.199</v>
+        <v>7.512</v>
       </c>
       <c r="H25">
-        <v>10.94954486381523</v>
+        <v>10.95605865703324</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1065,16 +1065,16 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>10.87</v>
+        <v>10.94</v>
       </c>
       <c r="F26">
-        <v>0.2047105431556702</v>
+        <v>0.2974976897239685</v>
       </c>
       <c r="G26">
-        <v>9.669</v>
+        <v>8.699</v>
       </c>
       <c r="H26">
-        <v>10.86726776321015</v>
+        <v>10.93969918730344</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1091,16 +1091,16 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <v>10.75</v>
+        <v>10.93</v>
       </c>
       <c r="F27">
-        <v>0.1457474827766418</v>
+        <v>0.3350203633308411</v>
       </c>
       <c r="G27">
-        <v>9.130000000000001</v>
+        <v>9.967000000000001</v>
       </c>
       <c r="H27">
-        <v>10.75430202940836</v>
+        <v>10.93120196023703</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1117,16 +1117,16 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>10.75</v>
+        <v>10.86</v>
       </c>
       <c r="F28">
-        <v>0.1975118517875671</v>
+        <v>0.2834848165512085</v>
       </c>
       <c r="G28">
-        <v>9.179</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="H28">
-        <v>10.74896635112424</v>
+        <v>10.85518642921144</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1143,16 +1143,16 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>10.66</v>
+        <v>10.81</v>
       </c>
       <c r="F29">
-        <v>0.1914747953414917</v>
+        <v>0.128736138343811</v>
       </c>
       <c r="G29">
-        <v>8.944000000000001</v>
+        <v>8.304</v>
       </c>
       <c r="H29">
-        <v>10.66206826295239</v>
+        <v>10.81326102129849</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1169,16 +1169,16 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>10.65</v>
+        <v>10.79</v>
       </c>
       <c r="F30">
-        <v>0.1967595219612122</v>
+        <v>0.1584727168083191</v>
       </c>
       <c r="G30">
-        <v>9.680999999999999</v>
+        <v>9.289</v>
       </c>
       <c r="H30">
-        <v>10.64870944498395</v>
+        <v>10.78531711653232</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1195,16 +1195,16 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>10.63</v>
+        <v>10.6</v>
       </c>
       <c r="F31">
-        <v>0.1702278256416321</v>
+        <v>0.2327267527580261</v>
       </c>
       <c r="G31">
-        <v>10.303</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="H31">
-        <v>10.63462931233681</v>
+        <v>10.60259991157513</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1221,16 +1221,16 @@
         <v>3</v>
       </c>
       <c r="E32">
-        <v>10.63</v>
+        <v>10.6</v>
       </c>
       <c r="F32">
-        <v>0.1045076847076416</v>
+        <v>0.2531931400299072</v>
       </c>
       <c r="G32">
-        <v>8.654</v>
+        <v>9.987</v>
       </c>
       <c r="H32">
-        <v>10.62606790244629</v>
+        <v>10.59694907356888</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1247,16 +1247,16 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>10.6</v>
+        <v>10.59</v>
       </c>
       <c r="F33">
-        <v>0.1287407279014587</v>
+        <v>0.2355057597160339</v>
       </c>
       <c r="G33">
-        <v>10.009</v>
+        <v>10.587</v>
       </c>
       <c r="H33">
-        <v>10.6038748648065</v>
+        <v>10.5903826098122</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,13 +1276,13 @@
         <v>10.59</v>
       </c>
       <c r="F34">
-        <v>0.2244275212287903</v>
+        <v>0.2850601673126221</v>
       </c>
       <c r="G34">
-        <v>10.513</v>
+        <v>10.587</v>
       </c>
       <c r="H34">
-        <v>10.59187459004285</v>
+        <v>10.59017042612419</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1299,16 +1299,16 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>22.36</v>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>0.07869446277618408</v>
+        <v>0.05090802907943726</v>
       </c>
       <c r="G35">
-        <v>-9.800000000000001</v>
+        <v>-12.36</v>
       </c>
       <c r="H35">
-        <v>22.36000000000605</v>
+        <v>23.00000000012142</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1325,16 +1325,16 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>16.15</v>
+        <v>18.13</v>
       </c>
       <c r="F36">
-        <v>0.07523113489151001</v>
+        <v>0.0734856128692627</v>
       </c>
       <c r="G36">
-        <v>2.476</v>
+        <v>3.755</v>
       </c>
       <c r="H36">
-        <v>16.14855072467016</v>
+        <v>18.12500000000786</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1351,16 +1351,16 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>14.94</v>
+        <v>14.16</v>
       </c>
       <c r="F37">
-        <v>0.04397827386856079</v>
+        <v>0.09606999158859253</v>
       </c>
       <c r="G37">
-        <v>3.417</v>
+        <v>4.849</v>
       </c>
       <c r="H37">
-        <v>14.93666666666841</v>
+        <v>14.16000000003253</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1377,16 +1377,16 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>12.63</v>
+        <v>14.12</v>
       </c>
       <c r="F38">
-        <v>0.05948400497436523</v>
+        <v>0.06427818536758423</v>
       </c>
       <c r="G38">
-        <v>4.164</v>
+        <v>4.86</v>
       </c>
       <c r="H38">
-        <v>12.62768506770935</v>
+        <v>14.12000000003511</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1403,16 +1403,16 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>12.53</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>0.03748881816864014</v>
+        <v>0.08804631233215332</v>
       </c>
       <c r="G39">
-        <v>5.182</v>
+        <v>4.988</v>
       </c>
       <c r="H39">
-        <v>12.52640000000001</v>
+        <v>14.0000000000011</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1429,16 +1429,16 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>12.24</v>
+        <v>13.21</v>
       </c>
       <c r="F40">
-        <v>0.1098527908325195</v>
+        <v>0.1044266223907471</v>
       </c>
       <c r="G40">
-        <v>7.424</v>
+        <v>3.958</v>
       </c>
       <c r="H40">
-        <v>12.24375903616202</v>
+        <v>13.20765957446821</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1455,16 +1455,16 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>12.2</v>
+        <v>12.26</v>
       </c>
       <c r="F41">
-        <v>0.0531802773475647</v>
+        <v>0.1607384085655212</v>
       </c>
       <c r="G41">
-        <v>6.547</v>
+        <v>4.986</v>
       </c>
       <c r="H41">
-        <v>12.19979788793242</v>
+        <v>12.25792000001402</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1481,16 +1481,16 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>11.51</v>
+        <v>11.98</v>
       </c>
       <c r="F42">
-        <v>0.1174609661102295</v>
+        <v>0.1247225403785706</v>
       </c>
       <c r="G42">
-        <v>7.576</v>
+        <v>4.509</v>
       </c>
       <c r="H42">
-        <v>11.51145891106234</v>
+        <v>11.98295350025838</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1507,16 +1507,16 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>11.32</v>
+        <v>11.5</v>
       </c>
       <c r="F43">
-        <v>0.04950302839279175</v>
+        <v>0.09424841403961182</v>
       </c>
       <c r="G43">
-        <v>6.075</v>
+        <v>6.702</v>
       </c>
       <c r="H43">
-        <v>11.32076244777463</v>
+        <v>11.50096554077782</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1533,16 +1533,16 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>11.19</v>
+        <v>11.05</v>
       </c>
       <c r="F44">
-        <v>0.113520085811615</v>
+        <v>0.1670249104499817</v>
       </c>
       <c r="G44">
-        <v>8.706</v>
+        <v>7.223</v>
       </c>
       <c r="H44">
-        <v>11.19068377339181</v>
+        <v>11.04672594987945</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1559,16 +1559,16 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>11.16</v>
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>0.1486964225769043</v>
+        <v>0.1332523226737976</v>
       </c>
       <c r="G45">
-        <v>7.441</v>
+        <v>8.403</v>
       </c>
       <c r="H45">
-        <v>11.16443033549969</v>
+        <v>10.99672586289548</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1585,16 +1585,16 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="F46">
-        <v>0.09218871593475342</v>
+        <v>0.1339443922042847</v>
       </c>
       <c r="G46">
-        <v>7.2</v>
+        <v>7.428</v>
       </c>
       <c r="H46">
-        <v>11.00138070604037</v>
+        <v>10.98815480979022</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1611,16 +1611,16 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>10.95</v>
+        <v>10.96</v>
       </c>
       <c r="F47">
-        <v>0.120959460735321</v>
+        <v>0.1219642758369446</v>
       </c>
       <c r="G47">
-        <v>9.199</v>
+        <v>7.512</v>
       </c>
       <c r="H47">
-        <v>10.94954486381523</v>
+        <v>10.95605865703324</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1637,16 +1637,16 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>10.87</v>
+        <v>10.94</v>
       </c>
       <c r="F48">
-        <v>0.1941056847572327</v>
+        <v>0.2426967024803162</v>
       </c>
       <c r="G48">
-        <v>9.669</v>
+        <v>8.699</v>
       </c>
       <c r="H48">
-        <v>10.86726776321015</v>
+        <v>10.93969918730344</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1663,16 +1663,16 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>10.75</v>
+        <v>10.93</v>
       </c>
       <c r="F49">
-        <v>0.1364787220954895</v>
+        <v>0.3257995843887329</v>
       </c>
       <c r="G49">
-        <v>9.130000000000001</v>
+        <v>9.967000000000001</v>
       </c>
       <c r="H49">
-        <v>10.75430202940836</v>
+        <v>10.93120196023703</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1689,16 +1689,16 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <v>10.75</v>
+        <v>10.86</v>
       </c>
       <c r="F50">
-        <v>0.2109419703483582</v>
+        <v>0.1743751764297485</v>
       </c>
       <c r="G50">
-        <v>9.179</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="H50">
-        <v>10.74896635112424</v>
+        <v>10.85518642921144</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1715,16 +1715,16 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>10.66</v>
+        <v>10.81</v>
       </c>
       <c r="F51">
-        <v>0.1856914162635803</v>
+        <v>0.1434974074363708</v>
       </c>
       <c r="G51">
-        <v>8.944000000000001</v>
+        <v>8.304</v>
       </c>
       <c r="H51">
-        <v>10.66206826295239</v>
+        <v>10.81326102129849</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1741,16 +1741,16 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <v>10.65</v>
+        <v>10.79</v>
       </c>
       <c r="F52">
-        <v>0.2249531149864197</v>
+        <v>0.1769987344741821</v>
       </c>
       <c r="G52">
-        <v>9.680999999999999</v>
+        <v>9.289</v>
       </c>
       <c r="H52">
-        <v>10.64870944498395</v>
+        <v>10.78531711653232</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1767,16 +1767,16 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>10.63</v>
+        <v>10.6</v>
       </c>
       <c r="F53">
-        <v>0.1706902980804443</v>
+        <v>0.2382606863975525</v>
       </c>
       <c r="G53">
-        <v>10.303</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="H53">
-        <v>10.63462931233681</v>
+        <v>10.60259991157513</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1793,16 +1793,16 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <v>10.63</v>
+        <v>10.6</v>
       </c>
       <c r="F54">
-        <v>0.109708845615387</v>
+        <v>0.2643405199050903</v>
       </c>
       <c r="G54">
-        <v>8.654</v>
+        <v>9.987</v>
       </c>
       <c r="H54">
-        <v>10.62606790244629</v>
+        <v>10.59694907356888</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1819,16 +1819,16 @@
         <v>3</v>
       </c>
       <c r="E55">
-        <v>10.6</v>
+        <v>10.59</v>
       </c>
       <c r="F55">
-        <v>0.1507453918457031</v>
+        <v>0.277891993522644</v>
       </c>
       <c r="G55">
-        <v>10.009</v>
+        <v>10.587</v>
       </c>
       <c r="H55">
-        <v>10.6038748648065</v>
+        <v>10.5903826098122</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,13 +1848,13 @@
         <v>10.59</v>
       </c>
       <c r="F56">
-        <v>0.2377536296844482</v>
+        <v>0.3108150959014893</v>
       </c>
       <c r="G56">
-        <v>10.513</v>
+        <v>10.587</v>
       </c>
       <c r="H56">
-        <v>10.59187459004285</v>
+        <v>10.59017042612419</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,13 +1874,13 @@
         <v>10.59</v>
       </c>
       <c r="F57">
-        <v>0.2204904556274414</v>
+        <v>0.3467485308647156</v>
       </c>
       <c r="G57">
         <v>10.59</v>
       </c>
       <c r="H57">
-        <v>10.58980897284187</v>
+        <v>10.58980894455985</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1897,12 +1897,246 @@
         <v>3</v>
       </c>
       <c r="E58">
+        <v>10.59</v>
+      </c>
+      <c r="F58">
+        <v>0.3095002770423889</v>
+      </c>
+      <c r="G58">
+        <v>10.59</v>
+      </c>
+      <c r="H58">
+        <v>10.58980895207744</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>10.59</v>
+      </c>
+      <c r="F59">
+        <v>0.3342683911323547</v>
+      </c>
+      <c r="G59">
+        <v>10.59</v>
+      </c>
+      <c r="H59">
+        <v>10.58980894726202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>10.59</v>
+      </c>
+      <c r="F60">
+        <v>0.284575879573822</v>
+      </c>
+      <c r="G60">
+        <v>10.59</v>
+      </c>
+      <c r="H60">
+        <v>10.58980897380963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>10.59</v>
+      </c>
+      <c r="F61">
+        <v>0.4082470536231995</v>
+      </c>
+      <c r="G61">
+        <v>10.59</v>
+      </c>
+      <c r="H61">
+        <v>10.58980897144267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>10.59</v>
+      </c>
+      <c r="F62">
+        <v>0.3138430118560791</v>
+      </c>
+      <c r="G62">
+        <v>10.59</v>
+      </c>
+      <c r="H62">
+        <v>10.58980894424859</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>10.59</v>
+      </c>
+      <c r="F63">
+        <v>0.2774812579154968</v>
+      </c>
+      <c r="G63">
+        <v>10.59</v>
+      </c>
+      <c r="H63">
+        <v>10.5898089930852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>10.59</v>
+      </c>
+      <c r="F64">
+        <v>0.2619883418083191</v>
+      </c>
+      <c r="G64">
+        <v>10.59</v>
+      </c>
+      <c r="H64">
+        <v>10.58980894733127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>10.59</v>
+      </c>
+      <c r="F65">
+        <v>0.3168250322341919</v>
+      </c>
+      <c r="G65">
+        <v>10.59</v>
+      </c>
+      <c r="H65">
+        <v>10.58980894419095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>10.59</v>
+      </c>
+      <c r="F66">
+        <v>0.2577491402626038</v>
+      </c>
+      <c r="G66">
+        <v>10.59</v>
+      </c>
+      <c r="H66">
+        <v>10.58980894416417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
         <v>10.84</v>
       </c>
-      <c r="F58">
-        <v>2.078351974487305</v>
-      </c>
-      <c r="G58">
+      <c r="F67">
+        <v>3.873599052429199</v>
+      </c>
+      <c r="G67">
         <v>10.84</v>
       </c>
     </row>
